--- a/data/trans_dic/P13A_1_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_2023-Dificultad-trans_dic.xlsx
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.8324313924492212</v>
+        <v>0.8402804904602222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8645830363579227</v>
+        <v>0.8696422333086717</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.9897061347861457</v>
+        <v>0.9900655354502459</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.992018313444366</v>
+        <v>0.9921989511292207</v>
       </c>
     </row>
     <row r="7">
@@ -633,10 +633,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.8881370990397076</v>
+        <v>0.8973271361312284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.906861995112115</v>
+        <v>0.9065401376299708</v>
       </c>
     </row>
     <row r="9">
@@ -715,7 +715,7 @@
         <v>0.8571040264184459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8872932513236353</v>
+        <v>0.8872932513236355</v>
       </c>
     </row>
     <row r="14">
@@ -727,10 +727,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.6387883077519301</v>
+        <v>0.639689576327157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7120672919398595</v>
+        <v>0.7010066758430364</v>
       </c>
     </row>
     <row r="15">
@@ -742,10 +742,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.9535017606242054</v>
+        <v>0.9516572732651364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9622616182324781</v>
+        <v>0.9642245430167831</v>
       </c>
     </row>
     <row r="16">
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9431405079839636</v>
+        <v>0.9431405079839634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9540585218950082</v>
+        <v>0.9540585218950079</v>
       </c>
     </row>
     <row r="17">
@@ -778,10 +778,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.8906219754133851</v>
+        <v>0.881615086560312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9084234715551724</v>
+        <v>0.911881748823999</v>
       </c>
     </row>
     <row r="18">
@@ -793,10 +793,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.973050732128067</v>
+        <v>0.9721404152649277</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9773811612830429</v>
+        <v>0.9777201685316865</v>
       </c>
     </row>
     <row r="19">
@@ -939,10 +939,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>41423</v>
+        <v>41814</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56086</v>
+        <v>56414</v>
       </c>
     </row>
     <row r="7">
@@ -954,10 +954,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>49250</v>
+        <v>49268</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64352</v>
+        <v>64364</v>
       </c>
     </row>
     <row r="8">
@@ -1007,10 +1007,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>40716</v>
+        <v>41137</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49838</v>
+        <v>49821</v>
       </c>
     </row>
     <row r="11">
@@ -1135,10 +1135,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>21811</v>
+        <v>21842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30826</v>
+        <v>30347</v>
       </c>
     </row>
     <row r="19">
@@ -1150,10 +1150,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>32557</v>
+        <v>32494</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41657</v>
+        <v>41742</v>
       </c>
     </row>
     <row r="20">
@@ -1203,10 +1203,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>145446</v>
+        <v>143975</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>183610</v>
+        <v>184309</v>
       </c>
     </row>
     <row r="23">
@@ -1218,10 +1218,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>158907</v>
+        <v>158758</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>197547</v>
+        <v>197616</v>
       </c>
     </row>
     <row r="24">
